--- a/out.xlsx
+++ b/out.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="11">
   <si>
     <t>цена</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>id пиццы</t>
+  </si>
+  <si>
+    <t>острая</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45432.02193108796</v>
+        <v>45432.54333273148</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -497,7 +500,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45432.021933159725</v>
+        <v>45432.543336284725</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -514,10 +517,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45432.02193396991</v>
+        <v>45432.54333784722</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>600.0</v>
@@ -531,7 +534,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45432.0219343287</v>
+        <v>45432.543338564814</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -548,7 +551,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45432.02193483796</v>
+        <v>45432.54333951389</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -565,7 +568,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45432.02193511574</v>
+        <v>45432.54334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -582,7 +585,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45432.02193603009</v>
+        <v>45432.543341145836</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -599,10 +602,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45432.02193670139</v>
+        <v>45432.5433421875</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
         <v>600.0</v>
@@ -616,7 +619,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45432.02193715278</v>
+        <v>45432.54334305556</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -633,7 +636,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45432.02193769676</v>
+        <v>45432.54334409722</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -650,10 +653,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45432.02193814815</v>
+        <v>45432.54334532408</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
         <v>600.0</v>
@@ -667,7 +670,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45432.021938541664</v>
+        <v>45432.54334645833</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -684,7 +687,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45432.02193888889</v>
+        <v>45432.54334708333</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -701,10 +704,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45432.021939375</v>
+        <v>45432.543348113424</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
         <v>600.0</v>
@@ -718,7 +721,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45432.02193978009</v>
+        <v>45432.54334891204</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -735,7 +738,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45432.021940625</v>
+        <v>45432.54335099537</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -752,7 +755,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45432.021943506945</v>
+        <v>45432.54335733796</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -769,7 +772,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45432.02195243056</v>
+        <v>45432.54337373842</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -786,7 +789,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45432.021952731484</v>
+        <v>45432.543374270834</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -803,7 +806,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45432.02195303241</v>
+        <v>45432.5433753125</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -820,7 +823,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45432.02195333334</v>
+        <v>45432.543375925925</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -837,10 +840,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45432.02195383102</v>
+        <v>45432.54337703704</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
         <v>600.0</v>
@@ -854,7 +857,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45432.02195407407</v>
+        <v>45432.543377395836</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -871,7 +874,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45432.02195451389</v>
+        <v>45432.54337872685</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -888,7 +891,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45432.021954814816</v>
+        <v>45432.54337924768</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -905,7 +908,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45432.021962858795</v>
+        <v>45432.54339341435</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -922,7 +925,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45432.02196716435</v>
+        <v>45432.54340141204</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -939,7 +942,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45432.021967546294</v>
+        <v>45432.54340224537</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -956,7 +959,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45432.02196773148</v>
+        <v>45432.54340267361</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -973,7 +976,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45432.02196805555</v>
+        <v>45432.54340380787</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -990,7 +993,7 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45432.02196825232</v>
+        <v>45432.54340416667</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1007,7 +1010,7 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45432.02196859954</v>
+        <v>45432.54340523148</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1024,7 +1027,7 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45432.02196884259</v>
+        <v>45432.54340584491</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -1041,10 +1044,10 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45432.02196918982</v>
+        <v>45432.54340730324</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
         <v>600.0</v>
@@ -1058,7 +1061,7 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45432.02196935185</v>
+        <v>45432.543407743055</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1075,7 +1078,7 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45432.02197025463</v>
+        <v>45432.54340938658</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1092,7 +1095,7 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45432.021971041664</v>
+        <v>45432.54341209491</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1109,10 +1112,10 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45432.02197137731</v>
+        <v>45432.54341291667</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
         <v>600.0</v>
@@ -1126,7 +1129,7 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45432.02197164352</v>
+        <v>45432.543413506944</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1143,7 +1146,7 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45432.02197199074</v>
+        <v>45432.54341420139</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1160,7 +1163,7 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45432.021973587965</v>
+        <v>45432.543417789355</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -1177,7 +1180,7 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45432.02197440972</v>
+        <v>45432.543419305555</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1194,7 +1197,7 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45432.02197528935</v>
+        <v>45432.54342059028</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1211,7 +1214,7 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45432.021978923614</v>
+        <v>45432.5434265625</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -1228,7 +1231,7 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45432.02197952546</v>
+        <v>45432.54342785879</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1245,7 +1248,7 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45432.02198125</v>
+        <v>45432.543431157406</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -1262,7 +1265,7 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45432.02198150463</v>
+        <v>45432.54343158565</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1279,7 +1282,7 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45432.021981956015</v>
+        <v>45432.54343269676</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1296,7 +1299,7 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45432.021982175924</v>
+        <v>45432.543432997685</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1313,7 +1316,7 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45432.02198273148</v>
+        <v>45432.543433645835</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -1330,7 +1333,7 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45432.021982962964</v>
+        <v>45432.54343409722</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1347,7 +1350,7 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45432.021983321756</v>
+        <v>45432.543435</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -1364,7 +1367,7 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45432.021983611114</v>
+        <v>45432.54343546296</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -1381,7 +1384,7 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45432.02198493056</v>
+        <v>45432.54343863426</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -1398,7 +1401,7 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45432.02198517361</v>
+        <v>45432.5434391088</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1415,7 +1418,7 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45432.02198556713</v>
+        <v>45432.543439953704</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1432,7 +1435,7 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45432.02198575231</v>
+        <v>45432.54344030093</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1449,7 +1452,7 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45432.021986099535</v>
+        <v>45432.543441469905</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1466,7 +1469,7 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45432.021986354164</v>
+        <v>45432.54344181713</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1483,7 +1486,7 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45432.02198680556</v>
+        <v>45432.54344278935</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -1500,7 +1503,7 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45432.02198826389</v>
+        <v>45432.54344631945</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1517,7 +1520,7 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45432.02198858796</v>
+        <v>45432.54344743056</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -1534,7 +1537,7 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45432.02198938657</v>
+        <v>45432.54344959491</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1551,7 +1554,7 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45432.02198972222</v>
+        <v>45432.54345041667</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -1568,7 +1571,7 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45432.02199116898</v>
+        <v>45432.54345287037</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -1585,7 +1588,7 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45432.02199149306</v>
+        <v>45432.54345346065</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1602,7 +1605,7 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45432.02199238426</v>
+        <v>45432.543455300925</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -1619,7 +1622,7 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45432.02199314815</v>
+        <v>45432.54345672454</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1636,10 +1639,10 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45432.02199336806</v>
+        <v>45432.54345710648</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D70" t="n">
         <v>600.0</v>
@@ -1653,7 +1656,7 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45432.02199375</v>
+        <v>45432.54345780092</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -1670,7 +1673,7 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45432.02199415509</v>
+        <v>45432.543458541666</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1687,7 +1690,7 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45432.02199466435</v>
+        <v>45432.543459953704</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1704,7 +1707,7 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45432.02199483796</v>
+        <v>45432.54346021991</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -1721,7 +1724,7 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45432.02199559028</v>
+        <v>45432.54346112269</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1738,10 +1741,10 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45432.021995856485</v>
+        <v>45432.543461574074</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D76" t="n">
         <v>600.0</v>
@@ -1755,7 +1758,7 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45432.02199637731</v>
+        <v>45432.5434624537</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1772,7 +1775,7 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45432.021996689815</v>
+        <v>45432.54346302083</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -1789,7 +1792,7 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45432.02199715278</v>
+        <v>45432.54346395833</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -1806,7 +1809,7 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45432.02199825231</v>
+        <v>45432.543466863426</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -1823,7 +1826,7 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45432.02199855324</v>
+        <v>45432.543467511576</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -1840,7 +1843,7 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45432.0220077662</v>
+        <v>45432.543487083334</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -1857,10 +1860,10 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45432.02200806713</v>
+        <v>45432.54348769676</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
         <v>600.0</v>
@@ -1874,10 +1877,10 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45432.02200822916</v>
+        <v>45432.54348798611</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D84" t="n">
         <v>600.0</v>
@@ -1891,7 +1894,7 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45432.022008472224</v>
+        <v>45432.54348855324</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -1908,7 +1911,7 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45432.02200868056</v>
+        <v>45432.54348893518</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1925,7 +1928,7 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45432.02201085648</v>
+        <v>45432.543493171295</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -1942,7 +1945,7 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45432.02201521991</v>
+        <v>45432.54080372685</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1959,7 +1962,7 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45432.02201542824</v>
+        <v>45432.54080407407</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -1976,7 +1979,7 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45432.02201576389</v>
+        <v>45432.54080445602</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -1993,7 +1996,7 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45432.02201594907</v>
+        <v>45432.54080469907</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -2010,7 +2013,7 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45432.02201634259</v>
+        <v>45432.54080513889</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2027,7 +2030,7 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45432.02201666667</v>
+        <v>45432.54080555555</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2044,7 +2047,7 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45432.022016875</v>
+        <v>45432.54080587963</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -2061,7 +2064,7 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45432.02201721065</v>
+        <v>45432.54080638889</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -2078,7 +2081,7 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45432.0220175</v>
+        <v>45432.54080673611</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2095,7 +2098,7 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45432.02201788194</v>
+        <v>45432.540807233796</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2112,7 +2115,7 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45432.02201822917</v>
+        <v>45432.54080791667</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -2129,7 +2132,7 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45432.022018449075</v>
+        <v>45432.54080822917</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -2146,7 +2149,7 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45432.02201881944</v>
+        <v>45432.540808715275</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2163,7 +2166,7 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45432.02201903935</v>
+        <v>45432.540809039354</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -2180,7 +2183,7 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45432.02201954861</v>
+        <v>45432.54080945602</v>
       </c>
       <c r="C102" t="s">
         <v>3</v>
@@ -2197,7 +2200,7 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45432.02201982639</v>
+        <v>45432.54080976852</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
@@ -2214,7 +2217,7 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45432.022020185184</v>
+        <v>45432.54081025463</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -2231,7 +2234,7 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45432.02202038194</v>
+        <v>45432.54081046296</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -2316,7 +2319,7 @@
         <v>109.0</v>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45432.02202350694</v>
+        <v>45432.54081371528</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -2367,7 +2370,7 @@
         <v>112.0</v>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45432.02202427083</v>
+        <v>45432.54081453704</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
@@ -2401,7 +2404,7 @@
         <v>114.0</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45432.02202473379</v>
+        <v>45432.54081525463</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
@@ -2499,34 +2502,34 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" s="1">
-        <v>45431.997937523149</v>
+      <c r="A121" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>45432.54081815972</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
       </c>
-      <c r="D121">
-        <v>520</v>
+      <c r="D121" t="n">
+        <v>520.0</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" s="1">
-        <v>45431.997937812499</v>
+      <c r="A122" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>45432.54081864583</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
       </c>
-      <c r="D122">
-        <v>520</v>
+      <c r="D122" t="n">
+        <v>520.0</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
